--- a/ResultadoEleicoesDistritos/BEJA_MOURA.xlsx
+++ b/ResultadoEleicoesDistritos/BEJA_MOURA.xlsx
@@ -597,64 +597,64 @@
         <v>3538</v>
       </c>
       <c r="H2" t="n">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="J2" t="n">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="M2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="S2" t="n">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="T2" t="n">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="V2" t="n">
-        <v>2263</v>
+        <v>2231</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2265</v>
+        <v>2286</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
